--- a/src/main/resources/poi/report_warehouse_safetyStockWarning.xlsx
+++ b/src/main/resources/poi/report_warehouse_safetyStockWarning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangyupeng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_report3.0\xinsoft-gyhl\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A453982-FA7E-42D4-B4D9-72BCF90C840A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46B1C63-67D9-4759-8C81-37EAEB04BD45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -200,7 +200,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -209,6 +208,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,7 +523,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -536,21 +538,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="I1" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="I1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -591,7 +593,7 @@
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="4" t="s">
